--- a/biology/Zoologie/Japygoidea/Japygoidea.xlsx
+++ b/biology/Zoologie/Japygoidea/Japygoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Japygoidea sont une super-famille de diploures de l'ordre des Dicellurata. Les diploures (Diplura), sont de petits invertébrés terrestres, arthropodes pancrustacés, hexapodes, longtemps considérés comme des insectes.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La super-famille des Japygoidea a été décrite en 1873 par le naturaliste britannique Sir John Lubbock (1834-1913).
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Japygoidea sont caractérisés par deux cerques non-articulés en forme de pince[1]. Les trois derniers segments abdominaux, contenant les cerques, sont plus sclérotinisés et plus sombres que chez les autres diploures[2].
-Ils peuvent faire jusqu'à 6 cm de long[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Japygoidea sont caractérisés par deux cerques non-articulés en forme de pince. Les trois derniers segments abdominaux, contenant les cerques, sont plus sclérotinisés et plus sombres que chez les autres diploures.
+Ils peuvent faire jusqu'à 6 cm de long.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle se divise en cinq familles[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle se divise en cinq familles :
 Anajapygidae Bagnall, 1918
 Dinjapygidae Womersley, 1939
 Iapygidae Haliday, 1864
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) John Lubbock, Monograph of the Collembola and Thysanura, The Ray Society, London, 1873, 276 p. (lire en ligne).
 </t>
